--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H2">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N2">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q2">
-        <v>18.72819005088723</v>
+        <v>92.41334117670844</v>
       </c>
       <c r="R2">
-        <v>18.72819005088723</v>
+        <v>831.7200705903759</v>
       </c>
       <c r="S2">
-        <v>0.01703999279479477</v>
+        <v>0.04741820414326695</v>
       </c>
       <c r="T2">
-        <v>0.01703999279479477</v>
+        <v>0.04741820414326694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H3">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N3">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q3">
-        <v>64.38427966964726</v>
+        <v>76.18556736265998</v>
       </c>
       <c r="R3">
-        <v>64.38427966964726</v>
+        <v>685.6701062639399</v>
       </c>
       <c r="S3">
-        <v>0.05858054935836504</v>
+        <v>0.03909157206063371</v>
       </c>
       <c r="T3">
-        <v>0.05858054935836504</v>
+        <v>0.03909157206063371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H4">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N4">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q4">
-        <v>51.8132327099599</v>
+        <v>67.91774349402667</v>
       </c>
       <c r="R4">
-        <v>51.8132327099599</v>
+        <v>611.25969144624</v>
       </c>
       <c r="S4">
-        <v>0.04714268221615548</v>
+        <v>0.03484926943385411</v>
       </c>
       <c r="T4">
-        <v>0.04714268221615548</v>
+        <v>0.03484926943385411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H5">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N5">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q5">
-        <v>87.14081511146952</v>
+        <v>384.8156800599418</v>
       </c>
       <c r="R5">
-        <v>87.14081511146952</v>
+        <v>3463.341120539476</v>
       </c>
       <c r="S5">
-        <v>0.07928576427286091</v>
+        <v>0.1974527513264654</v>
       </c>
       <c r="T5">
-        <v>0.07928576427286091</v>
+        <v>0.1974527513264654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H6">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N6">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q6">
-        <v>299.5750574686253</v>
+        <v>317.24208368741</v>
       </c>
       <c r="R6">
-        <v>299.5750574686253</v>
+        <v>2855.17875318669</v>
       </c>
       <c r="S6">
-        <v>0.2725707506649192</v>
+        <v>0.1627800672022059</v>
       </c>
       <c r="T6">
-        <v>0.2725707506649192</v>
+        <v>0.1627800672022059</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H7">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N7">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O7">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P7">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q7">
-        <v>241.0829514031051</v>
+        <v>282.8142811200267</v>
       </c>
       <c r="R7">
-        <v>241.0829514031051</v>
+        <v>2545.32853008024</v>
       </c>
       <c r="S7">
-        <v>0.2193512423621605</v>
+        <v>0.1451148194191756</v>
       </c>
       <c r="T7">
-        <v>0.2193512423621605</v>
+        <v>0.1451148194191756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H8">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N8">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O8">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P8">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q8">
-        <v>46.6863724525729</v>
+        <v>284.2580248345054</v>
       </c>
       <c r="R8">
-        <v>46.6863724525729</v>
+        <v>2558.322223510548</v>
       </c>
       <c r="S8">
-        <v>0.04247796760099942</v>
+        <v>0.145855618672963</v>
       </c>
       <c r="T8">
-        <v>0.04247796760099942</v>
+        <v>0.145855618672963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H9">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N9">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P9">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q9">
-        <v>160.4996773623284</v>
+        <v>234.34234303893</v>
       </c>
       <c r="R9">
-        <v>160.4996773623284</v>
+        <v>2109.08108735037</v>
       </c>
       <c r="S9">
-        <v>0.1460319090307073</v>
+        <v>0.120243386075431</v>
       </c>
       <c r="T9">
-        <v>0.1460319090307073</v>
+        <v>0.1202433860754309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H10">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N10">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O10">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P10">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q10">
-        <v>129.1620745889657</v>
+        <v>208.91100106328</v>
       </c>
       <c r="R10">
-        <v>129.1620745889657</v>
+        <v>1880.19900956952</v>
       </c>
       <c r="S10">
-        <v>0.1175191416990375</v>
+        <v>0.1071943116660043</v>
       </c>
       <c r="T10">
-        <v>0.1175191416990375</v>
+        <v>0.1071943116660042</v>
       </c>
     </row>
   </sheetData>
